--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,12 @@
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,106 +61,127 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>great</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>rice</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>highly</t>
   </si>
   <si>
     <t>kitchen</t>
@@ -178,91 +193,82 @@
     <t>day</t>
   </si>
   <si>
-    <t>old</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -623,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,31 +716,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>0.978494623655914</v>
+      </c>
+      <c r="L3">
+        <v>91</v>
+      </c>
+      <c r="M3">
+        <v>91</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3">
-        <v>0.956989247311828</v>
-      </c>
-      <c r="L3">
-        <v>89</v>
-      </c>
-      <c r="M3">
-        <v>89</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,31 +766,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0.90625</v>
+      </c>
+      <c r="L4">
+        <v>116</v>
+      </c>
+      <c r="M4">
+        <v>116</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>0.8840579710144928</v>
-      </c>
-      <c r="L4">
-        <v>61</v>
-      </c>
-      <c r="M4">
-        <v>61</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4339622641509434</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3875968992248062</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8730650154798761</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L6">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M6">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,163 +898,115 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3775510204081632</v>
+        <v>0.1513513513513514</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.7662337662337663</v>
+      </c>
+      <c r="L7">
+        <v>177</v>
+      </c>
+      <c r="M7">
+        <v>177</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>0.7608695652173914</v>
-      </c>
-      <c r="L7">
-        <v>35</v>
-      </c>
-      <c r="M7">
-        <v>35</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="K9">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L9">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.7316017316017316</v>
-      </c>
-      <c r="L8">
-        <v>169</v>
-      </c>
-      <c r="M8">
-        <v>169</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1513513513513514</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>157</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="M9">
+        <v>55</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.7152542372881356</v>
-      </c>
-      <c r="L9">
-        <v>211</v>
-      </c>
-      <c r="M9">
-        <v>211</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,21 +1018,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6619718309859155</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,47 +1070,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>0.6578947368421053</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>26</v>
-      </c>
-      <c r="K13">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L13">
-        <v>44</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6412520064205457</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L14">
-        <v>799</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>799</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>447</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6285714285714286</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1190,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>65</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6222222222222222</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1216,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6136363636363636</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1242,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5961538461538461</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1268,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5846153846153846</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1294,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5641025641025641</v>
+        <v>0.578125</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1320,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5542168674698795</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1346,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L22">
         <v>35</v>
       </c>
-      <c r="K22">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="L22">
-        <v>42</v>
-      </c>
       <c r="M22">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1372,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5269461077844312</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L23">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1398,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.52</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1424,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5142857142857142</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1450,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1476,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4736842105263158</v>
+        <v>0.48</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1502,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.46875</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1533,16 +1491,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4583333333333333</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1554,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4518072289156627</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L30">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M30">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1580,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.443609022556391</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L31">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1606,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4320987654320987</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1632,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4202334630350195</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L33">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="M33">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1658,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3946078431372549</v>
+        <v>0.4191176470588235</v>
       </c>
       <c r="L34">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M34">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1684,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.360655737704918</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1715,16 +1673,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3589041095890411</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L36">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="M36">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1736,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>468</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.3492063492063492</v>
+        <v>0.3741007194244604</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1762,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.3157894736842105</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L38">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1788,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.2972972972972973</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1814,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>78</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.297029702970297</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1840,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2932330827067669</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L41">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1866,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2755651237890204</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L42">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1892,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>673</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2661870503597122</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1918,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.2649006622516556</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L44">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1944,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45">
+        <v>0.277511961722488</v>
+      </c>
+      <c r="L45">
         <v>58</v>
       </c>
-      <c r="K45">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="L45">
-        <v>184</v>
-      </c>
       <c r="M45">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1970,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>598</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K46">
-        <v>0.2317073170731707</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L46">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1996,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2314814814814815</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2022,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K48">
-        <v>0.2198675496688742</v>
+        <v>0.25</v>
       </c>
       <c r="L48">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2048,47 +2006,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>589</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2162162162162162</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L49">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M49">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="N49">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>290</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.2162162162162162</v>
+        <v>0.2432723358449946</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2100,73 +2058,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>87</v>
+        <v>703</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>0.2142857142857143</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K52">
-        <v>0.2100313479623825</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L52">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>252</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.1677852348993289</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2178,47 +2136,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>124</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1644736842105263</v>
+        <v>0.215258855585831</v>
       </c>
       <c r="L54">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M54">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>381</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1527446300715991</v>
+        <v>0.2097186700767263</v>
       </c>
       <c r="L55">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="M55">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2230,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>355</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.15</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L56">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M56">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2256,47 +2214,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>374</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1444444444444444</v>
+        <v>0.1962962962962963</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M57">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58">
+        <v>0.1694510739856802</v>
+      </c>
+      <c r="L58">
         <v>71</v>
       </c>
-      <c r="K58">
-        <v>0.1302521008403361</v>
-      </c>
-      <c r="L58">
-        <v>31</v>
-      </c>
       <c r="M58">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2308,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>207</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1296296296296296</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L59">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="M59">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2334,21 +2292,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>235</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K60">
-        <v>0.127147766323024</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="L60">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M60">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2360,47 +2318,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>254</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1192214111922141</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="L61">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>362</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1129032258064516</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2412,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>220</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K63">
-        <v>0.1083743842364532</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2438,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K64">
-        <v>0.09562841530054644</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2464,73 +2422,73 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>331</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K65">
-        <v>0.08309990662931839</v>
+        <v>0.1152416356877323</v>
       </c>
       <c r="L65">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="M65">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N65">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>982</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K66">
-        <v>0.08201438848920864</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L66">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M66">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>638</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K67">
-        <v>0.06099815157116451</v>
+        <v>0.1020114942528736</v>
       </c>
       <c r="L67">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="N67">
         <v>0.97</v>
@@ -2542,59 +2500,163 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>508</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K68">
-        <v>0.05729166666666666</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L68">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="M68">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1086</v>
+        <v>965</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K69">
-        <v>0.0558766859344894</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L69">
         <v>29</v>
       </c>
       <c r="M69">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N69">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>490</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K70">
+        <v>0.06839186691312385</v>
+      </c>
+      <c r="L70">
+        <v>37</v>
+      </c>
+      <c r="M70">
+        <v>38</v>
+      </c>
+      <c r="N70">
+        <v>0.97</v>
+      </c>
+      <c r="O70">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K71">
+        <v>0.06333973128598848</v>
+      </c>
+      <c r="L71">
+        <v>33</v>
+      </c>
+      <c r="M71">
+        <v>34</v>
+      </c>
+      <c r="N71">
+        <v>0.97</v>
+      </c>
+      <c r="O71">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K72">
+        <v>0.05569007263922518</v>
+      </c>
+      <c r="L72">
+        <v>23</v>
+      </c>
+      <c r="M72">
+        <v>24</v>
+      </c>
+      <c r="N72">
+        <v>0.96</v>
+      </c>
+      <c r="O72">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K73">
+        <v>0.05203816131830009</v>
+      </c>
+      <c r="L73">
+        <v>60</v>
+      </c>
+      <c r="M73">
+        <v>64</v>
+      </c>
+      <c r="N73">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O73">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
